--- a/データサイズ比較.xlsx
+++ b/データサイズ比較.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icech\Desktop\share\Lab\2018_07_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33F01E5-6956-4A0A-B337-FC73834828F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B299EE6F-032E-45E3-9056-B22B4BAB4D39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" xr2:uid="{70FB00E6-50E4-4C2E-A18F-A5885E39447B}"/>
   </bookViews>
